--- a/preQuote-EM-SW.xlsx
+++ b/preQuote-EM-SW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Projeto Tech Saúde\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F0524F0-B062-43F6-8EFA-CC76132D30E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646D0E94-1ABF-4D2A-B517-AB417E4961E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{544CD843-3C42-4B22-93D2-FDB4CA71B01E}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="6">
         <f>6.64</f>
@@ -596,7 +596,7 @@
       </c>
       <c r="G3" s="9">
         <f>D2*G2</f>
-        <v>99.6</v>
+        <v>92.96</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -671,7 +671,7 @@
       </c>
       <c r="B12" s="11">
         <f>B11*D2</f>
-        <v>86.25</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -680,7 +680,7 @@
       </c>
       <c r="B13" s="10">
         <f>B12*G2</f>
-        <v>572.69999999999993</v>
+        <v>534.52</v>
       </c>
     </row>
   </sheetData>

--- a/preQuote-EM-SW.xlsx
+++ b/preQuote-EM-SW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Projeto Tech Saúde\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinic\Desktop\ME_SW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646D0E94-1ABF-4D2A-B517-AB417E4961E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B18EA70-54A9-4346-83C1-1610A897CF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{544CD843-3C42-4B22-93D2-FDB4CA71B01E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{544CD843-3C42-4B22-93D2-FDB4CA71B01E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Headings</t>
   </si>
@@ -108,14 +105,19 @@
   <si>
     <t>LaTeX editing sample material</t>
   </si>
+  <si>
+    <t>Fees</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #.##0.00_ ;_-[$$-409]* \-#.##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="168" formatCode="_-&quot;R$&quot;\ * #.##0.00_-;\-&quot;R$&quot;\ * #.##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -179,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,9 +209,11 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -545,20 +549,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864783EA-0831-4D17-B0D9-FAF04BC47F38}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D9" sqref="D9:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -572,7 +578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -587,7 +593,7 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -599,7 +605,7 @@
         <v>92.96</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -607,7 +613,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -615,15 +621,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -631,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -639,7 +645,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -647,40 +653,57 @@
         <f>45/60</f>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="7">
-        <f>SUM(B2:B10)</f>
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <f>SUM(B2:B9)-0.15</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="11">
-        <f>B11*D2</f>
-        <v>80.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+        <f>B11*D2+28</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="11">
+        <f>B12*1.0077+3.55</f>
+        <v>95.250699999999995</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B14" s="10">
+        <f>B13*G2</f>
+        <v>632.4646479999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
         <f>B12*G2</f>
-        <v>534.52</v>
+        <v>604.24</v>
       </c>
     </row>
   </sheetData>
